--- a/data/userIds.xlsx
+++ b/data/userIds.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="user_ids" sheetId="6" r:id="rId1"/>
-    <sheet name="output" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -39,12 +38,6 @@
   </si>
   <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Mathematics</t>
   </si>
 </sst>
 </file>
@@ -991,13 +984,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="16.1818181818182" customWidth="1"/>
@@ -1033,57 +1026,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="autostudentone.9606178621" tooltip="mailto:lemon@code.com"/>
-    <hyperlink ref="A3" r:id="rId1" display="autostudentone.9606178621" tooltip="mailto:lemon@code.com"/>
-    <hyperlink ref="A4" r:id="rId1" display="autostudentone.9606178621" tooltip="mailto:lemon@code.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/data/userIds.xlsx
+++ b/data/userIds.xlsx
@@ -37,7 +37,7 @@
     <t>III</t>
   </si>
   <si>
-    <t>English</t>
+    <t>Science</t>
   </si>
 </sst>
 </file>
@@ -987,7 +987,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/data/userIds.xlsx
+++ b/data/userIds.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="user_ids" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="all_subjects" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="38">
   <si>
     <t>Username</t>
   </si>
@@ -37,7 +39,97 @@
     <t>III</t>
   </si>
   <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>E,M,S</t>
+  </si>
+  <si>
+    <t>surendra.9606178621</t>
+  </si>
+  <si>
+    <t>stuPwd400494</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>ramesh.9606178621</t>
+  </si>
+  <si>
+    <t>stuPwd248500</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>E,M,B,C,P</t>
+  </si>
+  <si>
+    <t>brinda.9606178621</t>
+  </si>
+  <si>
+    <t>stuPwd805530</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>E,M,B,C</t>
+  </si>
+  <si>
+    <t>mahi.9606178621</t>
+  </si>
+  <si>
+    <t>stuPwd683158</t>
+  </si>
+  <si>
+    <t>E,M,B,P</t>
+  </si>
+  <si>
+    <t>prasad.9606178621</t>
+  </si>
+  <si>
+    <t>stuPwd547887</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>rakhi.9606178621</t>
+  </si>
+  <si>
+    <t>stuPwd345543</t>
+  </si>
+  <si>
+    <t>shama.9606178621</t>
+  </si>
+  <si>
+    <t>stuPwd109364</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>krupa.9606178621</t>
+  </si>
+  <si>
+    <t>stuPwd81386</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
     <t>Science</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Physics</t>
   </si>
 </sst>
 </file>
@@ -663,8 +755,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,7 +1079,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1013,10 +1105,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -1024,13 +1116,661 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="14.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="6.63636363636364" customWidth="1"/>
+    <col min="4" max="4" width="9.27272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="autostudentone.9606178621" tooltip="mailto:lemon@code.com"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A32" sqref="$A32:$XFD32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="25.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="16.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="17.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="15.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="12" customHeight="1" spans="1:4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="12" customHeight="1" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="12" customHeight="1" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:4">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:4">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:4">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:4">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:4">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:4">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:4">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" ht="12" customHeight="1" spans="1:4">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:4">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:4">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:4">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/userIds.xlsx
+++ b/data/userIds.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="864" firstSheet="1"/>
+    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="864" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="user_ids" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
     <sheet name="all_subjects" sheetId="8" r:id="rId3"/>
+    <sheet name="prod_input" sheetId="9" r:id="rId4"/>
+    <sheet name="test" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="66">
   <si>
     <t>Username</t>
   </si>
@@ -30,6 +32,27 @@
     <t>Subjects</t>
   </si>
   <si>
+    <t>surendra.9606178621</t>
+  </si>
+  <si>
+    <t>stuPwd400494</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>ramesh.9606178621</t>
+  </si>
+  <si>
+    <t>stuPwd248500</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>autostudentone.9606178621</t>
   </si>
   <si>
@@ -39,30 +62,12 @@
     <t>III</t>
   </si>
   <si>
-    <t>English</t>
+    <t>Science</t>
   </si>
   <si>
     <t>E,M,S</t>
   </si>
   <si>
-    <t>surendra.9606178621</t>
-  </si>
-  <si>
-    <t>stuPwd400494</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-  <si>
-    <t>ramesh.9606178621</t>
-  </si>
-  <si>
-    <t>stuPwd248500</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>E,M,B,C,P</t>
   </si>
   <si>
@@ -120,9 +125,6 @@
     <t>Mathematics</t>
   </si>
   <si>
-    <t>Science</t>
-  </si>
-  <si>
     <t>Biology</t>
   </si>
   <si>
@@ -130,6 +132,122 @@
   </si>
   <si>
     <t>Physics</t>
+  </si>
+  <si>
+    <t>three.9393688889</t>
+  </si>
+  <si>
+    <t>Taut@2023</t>
+  </si>
+  <si>
+    <t>four.9393688889</t>
+  </si>
+  <si>
+    <t>Taut@1607</t>
+  </si>
+  <si>
+    <t>five.9393688889</t>
+  </si>
+  <si>
+    <t>stuPwd882304</t>
+  </si>
+  <si>
+    <t>Grade 3 </t>
+  </si>
+  <si>
+    <t>User Name: </t>
+  </si>
+  <si>
+    <t>645ddaa48d769000085e89f8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password: </t>
+  </si>
+  <si>
+    <t>Grade 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">username : </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>645cba98c645f40008904477</t>
+    </r>
+  </si>
+  <si>
+    <t>Grade 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">username : </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>646ed8d17ccfb900088e5e9a</t>
+    </r>
+  </si>
+  <si>
+    <t>Grade 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: </t>
+  </si>
+  <si>
+    <t>six.9393688889</t>
+  </si>
+  <si>
+    <t>E,M,P,C,B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>646e14c72f305f0008779c59</t>
+    </r>
+  </si>
+  <si>
+    <t>Grade 7 </t>
+  </si>
+  <si>
+    <t>Need to create</t>
+  </si>
+  <si>
+    <t>Grade 8</t>
+  </si>
+  <si>
+    <t>eight.9393688889</t>
+  </si>
+  <si>
+    <t>Showing subscription ended, briangym is not allowed</t>
+  </si>
+  <si>
+    <t>stuPwd314996</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6469e9fb56ee0800080cdfac</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -142,13 +260,40 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -162,14 +307,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,142 +758,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,13 +1222,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="16.1818181818182" customWidth="1"/>
@@ -1091,16 +1237,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1108,7 +1254,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -1118,7 +1264,38 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" ht="15" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:4">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="autostudentone.9606178621" tooltip="mailto:lemon@code.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1142,143 +1319,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1308,28 +1485,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1337,41 +1514,41 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1379,41 +1556,41 @@
     </row>
     <row r="6" ht="12" customHeight="1" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="12" customHeight="1" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1421,27 +1598,27 @@
     </row>
     <row r="9" customFormat="1" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -1449,13 +1626,13 @@
     </row>
     <row r="11" customFormat="1" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
@@ -1463,13 +1640,13 @@
     </row>
     <row r="12" customFormat="1" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -1477,13 +1654,13 @@
     </row>
     <row r="13" customFormat="1" spans="1:4">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1491,27 +1668,27 @@
     </row>
     <row r="14" customFormat="1" spans="1:4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
@@ -1519,13 +1696,13 @@
     </row>
     <row r="16" customFormat="1" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -1533,13 +1710,13 @@
     </row>
     <row r="17" customFormat="1" spans="1:4">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -1547,13 +1724,13 @@
     </row>
     <row r="18" customFormat="1" spans="1:4">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1561,27 +1738,27 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
@@ -1589,13 +1766,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
@@ -1603,13 +1780,13 @@
     </row>
     <row r="22" customFormat="1" spans="1:4">
       <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
         <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -1617,13 +1794,13 @@
     </row>
     <row r="23" customFormat="1" spans="1:4">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1631,27 +1808,27 @@
     </row>
     <row r="24" customFormat="1" spans="1:4">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:4">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -1659,13 +1836,13 @@
     </row>
     <row r="26" customFormat="1" spans="1:4">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
         <v>36</v>
@@ -1673,13 +1850,13 @@
     </row>
     <row r="27" customFormat="1" spans="1:4">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>37</v>
@@ -1687,13 +1864,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1701,13 +1878,13 @@
     </row>
     <row r="32" ht="12" customHeight="1" spans="1:4">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1715,13 +1892,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1729,13 +1906,13 @@
     </row>
     <row r="34" customFormat="1" spans="1:4">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1743,13 +1920,13 @@
     </row>
     <row r="35" customFormat="1" spans="1:4">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1757,13 +1934,13 @@
     </row>
     <row r="36" customFormat="1" spans="1:4">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1773,4 +1950,353 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="11.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="12.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="Taut@1607"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="14.3636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="Taut@2023" tooltip="mailto:Taut@2023"/>
+    <hyperlink ref="B4" r:id="rId2" display="Taut@1607"/>
+    <hyperlink ref="B2" r:id="rId1" display="Taut@2023" tooltip="mailto:Taut@2023"/>
+    <hyperlink ref="B3" r:id="rId1" display="Taut@2023" tooltip="mailto:Taut@2023"/>
+    <hyperlink ref="B5" r:id="rId2" display="Taut@1607"/>
+    <hyperlink ref="B6" r:id="rId2" display="Taut@1607"/>
+    <hyperlink ref="B13" r:id="rId2" display="Taut@1607" tooltip="mailto:Taut@1607"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>